--- a/biology/Botanique/Ceroxylon_vogelianum/Ceroxylon_vogelianum.xlsx
+++ b/biology/Botanique/Ceroxylon_vogelianum/Ceroxylon_vogelianum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ceroxylon vogelianum, également connu sous le nom de palmier à cire de Vogel, est un palmier originaire des Andes, du sud du Venezuela au Pérou, on le trouve dans la forêt de montagne humide, à une altitude de 1900 à 2900 mètres [2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceroxylon vogelianum, également connu sous le nom de palmier à cire de Vogel, est un palmier originaire des Andes, du sud du Venezuela au Pérou, on le trouve dans la forêt de montagne humide, à une altitude de 1900 à 2900 mètres .
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ceroxylon vogelianum est un palmier de taille petite à moyenne avec un stipe de 3 à 17 mètres de haut et de 12 à 25 cm de diamètre[2]. La couronne peut avoir 6 à 18 feuilles, la plupart presque dressées ou disposées horizontalement [2]. Les limbes des feuilles sont constitués de 46-129 folioles sur un rachis de 38-210 cm de long ; pétiole de 15–75 cm de long [2]. Inflorescences mâles autour de 160 cm de long, avec environ 40 branches ; fleurs mâles à 6 étamines, à filets jusqu'à 1,5 mm de long et anthères 1,6–2,5 mm de longueur [2]. Inflorescences femelles autour. 360 cm de long avec 31–53 branches ; fleurs femelles avec 6 staminodes et un pistil vert de 2-3 mm de diamètre[2]. Fruits globuleux, rouge orangé à maturité, 1,6–2,0 cm diam. avec des graines 1,1–1,6 cm diam[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceroxylon vogelianum est un palmier de taille petite à moyenne avec un stipe de 3 à 17 mètres de haut et de 12 à 25 cm de diamètre. La couronne peut avoir 6 à 18 feuilles, la plupart presque dressées ou disposées horizontalement . Les limbes des feuilles sont constitués de 46-129 folioles sur un rachis de 38-210 cm de long ; pétiole de 15–75 cm de long . Inflorescences mâles autour de 160 cm de long, avec environ 40 branches ; fleurs mâles à 6 étamines, à filets jusqu'à 1,5 mm de long et anthères 1,6–2,5 mm de longueur . Inflorescences femelles autour. 360 cm de long avec 31–53 branches ; fleurs femelles avec 6 staminodes et un pistil vert de 2-3 mm de diamètre. Fruits globuleux, rouge orangé à maturité, 1,6–2,0 cm diam. avec des graines 1,1–1,6 cm diam.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente dans les Andes du Venezuela à la Colombie, et de l'Équateur au Pérou [2]. Il est présent dans la forêt humide de montagne, entre 1900 et 2900 mètres d'altitude, avec des individus clairsemés [2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente dans les Andes du Venezuela à la Colombie, et de l'Équateur au Pérou . Il est présent dans la forêt humide de montagne, entre 1900 et 2900 mètres d'altitude, avec des individus clairsemés .
 </t>
         </is>
       </c>
